--- a/application/views/backend/rkmvc.xlsx
+++ b/application/views/backend/rkmvc.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\hrmsproduct\application\views\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId4"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Stock Inward Report</t>
   </si>
@@ -39,12 +43,6 @@
   </si>
   <si>
     <t>GateDate</t>
-  </si>
-  <si>
-    <t>Return Type</t>
-  </si>
-  <si>
-    <t>Charge Type</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -62,25 +60,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="15"/>
-      <color rgb="FFBlue"/>
+      <color rgb="FF000FFB"/>
       <name val="Bold"/>
     </font>
   </fonts>
@@ -89,43 +79,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="6666ff"/>
+        <fgColor rgb="FF6666FF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +136,7 @@
     <xdr:ext cx="2085975" cy="895350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Paid" descr="Paid"/>
+        <xdr:cNvPr id="2" name="Paid" descr="Paid"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -153,7 +148,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -457,47 +455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15" customWidth="true" style="0"/>
-    <col min="15" max="15" width="15" customWidth="true" style="0"/>
-    <col min="16" max="16" width="15" customWidth="true" style="0"/>
-    <col min="17" max="17" width="15" customWidth="true" style="0"/>
-    <col min="18" max="18" width="15" customWidth="true" style="0"/>
-    <col min="19" max="19" width="15" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="C2"/>
+    <row r="4" spans="2:19" ht="19.5">
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="2:19">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -507,13 +483,13 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>5</v>
@@ -536,29 +512,16 @@
       <c r="Q8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
     <mergeCell ref="E8:I8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>